--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_25_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2219729.922008574</v>
+        <v>2217231.670687364</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13234110.54273124</v>
+        <v>13234110.54273125</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>292.0369556453971</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.2977551524149</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020903</v>
@@ -1382,10 +1382,10 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328562</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1430,7 +1430,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X11" t="n">
         <v>322.7559640598764</v>
@@ -1455,7 +1455,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553993</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404347</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1591,7 +1591,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y13" t="n">
         <v>171.6095167335022</v>
@@ -1616,10 +1616,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>240.9078483078754</v>
+        <v>236.8621683961323</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247499</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734099341</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1783,7 +1783,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C17" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D17" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E17" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F17" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G17" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H17" t="n">
-        <v>200.2049803011847</v>
+        <v>154.2578743136175</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.78497770204005</v>
+        <v>14.78497770203991</v>
       </c>
       <c r="T17" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U17" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V17" t="n">
-        <v>187.4023683964304</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W17" t="n">
-        <v>254.8381846312772</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X17" t="n">
-        <v>275.3283165923332</v>
+        <v>275.3283165923331</v>
       </c>
       <c r="Y17" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.9994691657065</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247588</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.42919609580147</v>
+        <v>85.42919609580133</v>
       </c>
       <c r="C19" t="n">
-        <v>72.84403701249201</v>
+        <v>72.84403701249187</v>
       </c>
       <c r="D19" t="n">
-        <v>54.21268893207653</v>
+        <v>54.21268893207639</v>
       </c>
       <c r="E19" t="n">
-        <v>52.03117856043335</v>
+        <v>52.0311785604332</v>
       </c>
       <c r="F19" t="n">
-        <v>51.01826393679542</v>
+        <v>51.01826393679528</v>
       </c>
       <c r="G19" t="n">
-        <v>71.6230241728924</v>
+        <v>71.62302417289226</v>
       </c>
       <c r="H19" t="n">
-        <v>50.35223082818496</v>
+        <v>50.35223082818482</v>
       </c>
       <c r="I19" t="n">
-        <v>1.949636323702293</v>
+        <v>1.949636323702151</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>95.36624124530609</v>
+        <v>95.36624124530594</v>
       </c>
       <c r="T19" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U19" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7348592376922</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W19" t="n">
-        <v>192.1202142504552</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X19" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y19" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C20" t="n">
-        <v>270.8701076848718</v>
+        <v>270.8701076848716</v>
       </c>
       <c r="D20" t="n">
-        <v>260.2802575345471</v>
+        <v>260.280257534547</v>
       </c>
       <c r="E20" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F20" t="n">
-        <v>312.4732616555756</v>
+        <v>312.4732616555755</v>
       </c>
       <c r="G20" t="n">
-        <v>316.5189415673176</v>
+        <v>316.5189415673175</v>
       </c>
       <c r="H20" t="n">
-        <v>200.2049803011847</v>
+        <v>200.2049803011845</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>14.78497770204005</v>
+        <v>14.78497770203988</v>
       </c>
       <c r="T20" t="n">
-        <v>109.5151860534843</v>
+        <v>109.5151860534842</v>
       </c>
       <c r="U20" t="n">
-        <v>156.5923878727662</v>
+        <v>156.592387872766</v>
       </c>
       <c r="V20" t="n">
-        <v>187.4023683964298</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W20" t="n">
-        <v>254.8381846312772</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X20" t="n">
-        <v>275.3283165923332</v>
+        <v>229.3812106047659</v>
       </c>
       <c r="Y20" t="n">
-        <v>291.8351545699178</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.42919609580147</v>
+        <v>85.42919609580133</v>
       </c>
       <c r="C22" t="n">
-        <v>72.84403701249201</v>
+        <v>72.84403701249187</v>
       </c>
       <c r="D22" t="n">
-        <v>54.21268893207653</v>
+        <v>54.21268893207639</v>
       </c>
       <c r="E22" t="n">
-        <v>52.03117856043335</v>
+        <v>52.0311785604332</v>
       </c>
       <c r="F22" t="n">
-        <v>51.01826393679542</v>
+        <v>51.01826393679528</v>
       </c>
       <c r="G22" t="n">
-        <v>71.6230241728924</v>
+        <v>71.62302417289226</v>
       </c>
       <c r="H22" t="n">
-        <v>50.35223082818496</v>
+        <v>50.35223082818482</v>
       </c>
       <c r="I22" t="n">
-        <v>1.949636323702293</v>
+        <v>1.949636323702144</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>95.36624124530609</v>
+        <v>95.36624124530593</v>
       </c>
       <c r="T22" t="n">
-        <v>125.1461651900334</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U22" t="n">
-        <v>191.809054119477</v>
+        <v>191.8090541194769</v>
       </c>
       <c r="V22" t="n">
-        <v>157.7348592376922</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W22" t="n">
-        <v>192.1202142504552</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X22" t="n">
-        <v>131.3068713029013</v>
+        <v>131.3068713029012</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.181869265959</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.3310575773447</v>
+        <v>288.3310575773446</v>
       </c>
       <c r="C23" t="n">
         <v>270.8701076848716</v>
@@ -2324,13 +2324,13 @@
         <v>260.280257534547</v>
       </c>
       <c r="E23" t="n">
-        <v>287.5275859861259</v>
+        <v>287.5275859861258</v>
       </c>
       <c r="F23" t="n">
         <v>312.4732616555755</v>
       </c>
       <c r="G23" t="n">
-        <v>316.5189415673175</v>
+        <v>270.5718355797521</v>
       </c>
       <c r="H23" t="n">
         <v>200.2049803011845</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>14.78497770203992</v>
+        <v>14.78497770203988</v>
       </c>
       <c r="T23" t="n">
         <v>109.5151860534842</v>
@@ -2375,16 +2375,16 @@
         <v>156.592387872766</v>
       </c>
       <c r="V23" t="n">
-        <v>187.4023683964319</v>
+        <v>233.3494743839989</v>
       </c>
       <c r="W23" t="n">
-        <v>254.8381846312771</v>
+        <v>254.838184631277</v>
       </c>
       <c r="X23" t="n">
         <v>275.3283165923331</v>
       </c>
       <c r="Y23" t="n">
-        <v>291.8351545699177</v>
+        <v>291.8351545699176</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.42919609580137</v>
+        <v>85.42919609580133</v>
       </c>
       <c r="C25" t="n">
-        <v>72.84403701249191</v>
+        <v>72.84403701249187</v>
       </c>
       <c r="D25" t="n">
-        <v>54.21268893207643</v>
+        <v>54.21268893207639</v>
       </c>
       <c r="E25" t="n">
-        <v>52.03117856043325</v>
+        <v>52.0311785604332</v>
       </c>
       <c r="F25" t="n">
-        <v>51.01826393679532</v>
+        <v>51.01826393679528</v>
       </c>
       <c r="G25" t="n">
-        <v>71.6230241728923</v>
+        <v>71.62302417289226</v>
       </c>
       <c r="H25" t="n">
-        <v>50.35223082818486</v>
+        <v>50.35223082818482</v>
       </c>
       <c r="I25" t="n">
-        <v>1.949636323702187</v>
+        <v>1.949636323702144</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>95.36624124530599</v>
+        <v>95.36624124530593</v>
       </c>
       <c r="T25" t="n">
-        <v>125.1461651900333</v>
+        <v>125.1461651900332</v>
       </c>
       <c r="U25" t="n">
         <v>191.8090541194769</v>
       </c>
       <c r="V25" t="n">
-        <v>157.7348592376921</v>
+        <v>157.734859237692</v>
       </c>
       <c r="W25" t="n">
-        <v>192.1202142504551</v>
+        <v>192.120214250455</v>
       </c>
       <c r="X25" t="n">
         <v>131.3068713029012</v>
       </c>
       <c r="Y25" t="n">
-        <v>124.1818692659589</v>
+        <v>124.1818692659588</v>
       </c>
     </row>
     <row r="26">
@@ -2558,19 +2558,19 @@
         <v>317.8452443034643</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E26" t="n">
-        <v>334.5027226047185</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>359.4483982741682</v>
+        <v>359.4483982741681</v>
       </c>
       <c r="G26" t="n">
         <v>363.4940781859102</v>
       </c>
       <c r="H26" t="n">
-        <v>247.1801169197772</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>61.76011432063261</v>
+        <v>61.76011432063255</v>
       </c>
       <c r="T26" t="n">
-        <v>82.45015138827762</v>
+        <v>156.4903226720769</v>
       </c>
       <c r="U26" t="n">
         <v>203.5675244913587</v>
       </c>
       <c r="V26" t="n">
-        <v>280.3246110025917</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W26" t="n">
-        <v>301.8133212498698</v>
+        <v>301.8133212498697</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y26" t="n">
-        <v>338.8102911885103</v>
+        <v>216.8941120651425</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4043327143941</v>
+        <v>132.404332714394</v>
       </c>
       <c r="C28" t="n">
-        <v>119.8191736310846</v>
+        <v>119.8191736310845</v>
       </c>
       <c r="D28" t="n">
         <v>101.1878255506691</v>
       </c>
       <c r="E28" t="n">
-        <v>99.00631517902593</v>
+        <v>99.00631517902588</v>
       </c>
       <c r="F28" t="n">
-        <v>97.99340055538801</v>
+        <v>97.99340055538795</v>
       </c>
       <c r="G28" t="n">
-        <v>118.598160791485</v>
+        <v>118.5981607914849</v>
       </c>
       <c r="H28" t="n">
-        <v>97.32736744677754</v>
+        <v>97.32736744677749</v>
       </c>
       <c r="I28" t="n">
-        <v>48.92477294229487</v>
+        <v>48.92477294229482</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.50450520250411</v>
+        <v>41.50450520250405</v>
       </c>
       <c r="S28" t="n">
-        <v>142.3413778638987</v>
+        <v>142.3413778638986</v>
       </c>
       <c r="T28" t="n">
-        <v>172.121301808626</v>
+        <v>172.1213018086259</v>
       </c>
       <c r="U28" t="n">
         <v>238.7841907380696</v>
       </c>
       <c r="V28" t="n">
-        <v>204.7099958562848</v>
+        <v>204.7099958562847</v>
       </c>
       <c r="W28" t="n">
-        <v>239.0953508690478</v>
+        <v>239.0953508690477</v>
       </c>
       <c r="X28" t="n">
         <v>178.2820079214939</v>
       </c>
       <c r="Y28" t="n">
-        <v>171.1570058845516</v>
+        <v>171.1570058845515</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3061941959372</v>
+        <v>335.3061941959373</v>
       </c>
       <c r="C29" t="n">
         <v>317.8452443034643</v>
       </c>
       <c r="D29" t="n">
-        <v>307.2553941531396</v>
+        <v>307.2553941531397</v>
       </c>
       <c r="E29" t="n">
-        <v>334.5027226047184</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.4483982741681</v>
       </c>
       <c r="G29" t="n">
-        <v>363.4940781859101</v>
+        <v>363.4940781859102</v>
       </c>
       <c r="H29" t="n">
-        <v>245.7236707585722</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>61.76011432063254</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>156.4903226720768</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>203.5675244913587</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>280.3246110025916</v>
       </c>
       <c r="W29" t="n">
         <v>301.8133212498697</v>
       </c>
       <c r="X29" t="n">
-        <v>322.3034532109257</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>338.8102911885103</v>
+        <v>292.017448356291</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247633</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2953,22 +2953,22 @@
         <v>119.8191736310845</v>
       </c>
       <c r="D31" t="n">
-        <v>101.187825550669</v>
+        <v>101.1878255506691</v>
       </c>
       <c r="E31" t="n">
-        <v>99.00631517902585</v>
+        <v>99.00631517902588</v>
       </c>
       <c r="F31" t="n">
-        <v>97.99340055538792</v>
+        <v>97.99340055538795</v>
       </c>
       <c r="G31" t="n">
         <v>118.5981607914849</v>
       </c>
       <c r="H31" t="n">
-        <v>97.32736744677746</v>
+        <v>97.32736744677749</v>
       </c>
       <c r="I31" t="n">
-        <v>48.92477294229479</v>
+        <v>48.9247729422948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.50450520250402</v>
+        <v>41.50450520250403</v>
       </c>
       <c r="S31" t="n">
         <v>142.3413778638986</v>
@@ -3004,7 +3004,7 @@
         <v>172.1213018086259</v>
       </c>
       <c r="U31" t="n">
-        <v>238.7841907380695</v>
+        <v>238.7841907380696</v>
       </c>
       <c r="V31" t="n">
         <v>204.7099958562847</v>
@@ -3013,7 +3013,7 @@
         <v>239.0953508690477</v>
       </c>
       <c r="X31" t="n">
-        <v>178.2820079214938</v>
+        <v>178.2820079214939</v>
       </c>
       <c r="Y31" t="n">
         <v>171.1570058845515</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C32" t="n">
         <v>267.5881715429025</v>
       </c>
       <c r="D32" t="n">
-        <v>256.9983213925779</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E32" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F32" t="n">
         <v>309.1913255136064</v>
       </c>
       <c r="G32" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H32" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T32" t="n">
         <v>106.2332499115151</v>
       </c>
       <c r="U32" t="n">
-        <v>153.3104517307969</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V32" t="n">
         <v>230.0675382420299</v>
@@ -3123,7 +3123,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I33" t="n">
         <v>18.81721868247745</v>
@@ -3162,7 +3162,7 @@
         <v>190.7165703189231</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7871683969275</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.14725995383223</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C34" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D34" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E34" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F34" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G34" t="n">
-        <v>68.34108803092316</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H34" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T34" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U34" t="n">
         <v>188.5271179775078</v>
@@ -3253,7 +3253,7 @@
         <v>128.0249351609321</v>
       </c>
       <c r="Y34" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353755</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925779</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441567</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253484</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007078</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307969</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247716</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383223</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052277</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010729</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846411</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482618</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092316</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621572</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333685</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480641</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239897</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.5030415600709</v>
+        <v>11.50304156007095</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
         <v>230.06753824203</v>
@@ -3566,7 +3566,7 @@
         <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3588,7 +3588,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333696</v>
+        <v>92.08430510333702</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
         <v>154.4529230957231</v>
@@ -3724,10 +3724,10 @@
         <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3749,13 +3749,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G41" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
-        <v>190.7165703189221</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U42" t="n">
         <v>225.7871683969286</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846415</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G43" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,22 +3946,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y43" t="n">
         <v>120.8999331239898</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007091</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383236</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C46" t="n">
-        <v>69.5621008705229</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010742</v>
+        <v>50.93075279010741</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846423</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482631</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092329</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621585</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1650.849925018064</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="C11" t="n">
-        <v>1329.337041025725</v>
+        <v>1640.517726580259</v>
       </c>
       <c r="D11" t="n">
-        <v>1018.520975367048</v>
+        <v>1329.701660921582</v>
       </c>
       <c r="E11" t="n">
-        <v>680.1823557168772</v>
+        <v>991.3630412714114</v>
       </c>
       <c r="F11" t="n">
-        <v>316.6460838753429</v>
+        <v>627.8267694298771</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>260.2039522229472</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
         <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084337</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416632</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638542</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W11" t="n">
-        <v>2614.542573243048</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X11" t="n">
-        <v>2288.526447930042</v>
+        <v>1983.207425607997</v>
       </c>
       <c r="Y11" t="n">
-        <v>1945.836748902303</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337116</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,31 +5218,31 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U13" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V13" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W13" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X13" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1400.715957574904</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1079.203073582566</v>
+        <v>1083.289618947961</v>
       </c>
       <c r="D14" t="n">
-        <v>768.3870079238885</v>
+        <v>772.4735532892842</v>
       </c>
       <c r="E14" t="n">
-        <v>430.0483882737176</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>66.51211643218339</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084337</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416632</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638542</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425607997</v>
       </c>
       <c r="Y14" t="n">
-        <v>1739.866164690952</v>
+        <v>1743.952710056348</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811061</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999791</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387279</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332724</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601574</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927755</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064296</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158125</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.428070438128</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992582</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410636</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886739</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533339</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125854</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619334</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431605</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199862</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471661</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266128</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501174</v>
       </c>
     </row>
     <row r="16">
@@ -5410,58 +5410,58 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052937</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254601</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611977</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268779</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770406</v>
       </c>
       <c r="G16" t="n">
-        <v>215.155714499834</v>
+        <v>215.1557144998329</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657651</v>
+        <v>116.388160665764</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328081</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337106</v>
       </c>
       <c r="M16" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N16" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T16" t="n">
         <v>1938.403572105845</v>
@@ -5470,16 +5470,16 @@
         <v>1696.750338179562</v>
       </c>
       <c r="V16" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921748</v>
       </c>
       <c r="W16" t="n">
         <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874609</v>
+        <v>893.6650816874601</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1731.032454542913</v>
+        <v>1684.621236373652</v>
       </c>
       <c r="C17" t="n">
-        <v>1457.426285164255</v>
+        <v>1411.015066994994</v>
       </c>
       <c r="D17" t="n">
-        <v>1194.516934119258</v>
+        <v>1148.105715949997</v>
       </c>
       <c r="E17" t="n">
-        <v>904.0850290827672</v>
+        <v>857.6738109135067</v>
       </c>
       <c r="F17" t="n">
-        <v>588.455471854913</v>
+        <v>542.0442536856526</v>
       </c>
       <c r="G17" t="n">
-        <v>268.7393692616629</v>
+        <v>222.3281510924031</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218339</v>
@@ -5513,31 +5513,31 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
         <v>3310.671500698018</v>
@@ -5549,16 +5549,16 @@
         <v>3041.875971479583</v>
       </c>
       <c r="V17" t="n">
-        <v>2852.580649867027</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W17" t="n">
-        <v>2595.168342158667</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X17" t="n">
-        <v>2317.05893145934</v>
+        <v>2270.647713290079</v>
       </c>
       <c r="Y17" t="n">
-        <v>2022.275947045282</v>
+        <v>1975.864728876021</v>
       </c>
     </row>
     <row r="18">
@@ -5583,10 +5583,10 @@
         <v>312.3844025601583</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218339</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>424.1192475095339</v>
+        <v>424.1192475095329</v>
       </c>
       <c r="C19" t="n">
-        <v>350.5394121433803</v>
+        <v>350.5394121433795</v>
       </c>
       <c r="D19" t="n">
-        <v>295.779120292798</v>
+        <v>295.7791202927972</v>
       </c>
       <c r="E19" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721577</v>
       </c>
       <c r="F19" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360008</v>
       </c>
       <c r="G19" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724733</v>
       </c>
       <c r="H19" t="n">
-        <v>68.48144605208469</v>
+        <v>68.48144605208455</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7936262148972</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K19" t="n">
-        <v>321.4050986989552</v>
+        <v>227.9463424536769</v>
       </c>
       <c r="L19" t="n">
-        <v>570.5736988665868</v>
+        <v>477.1149426213087</v>
       </c>
       <c r="M19" t="n">
-        <v>831.4649364110589</v>
+        <v>738.006180165781</v>
       </c>
       <c r="N19" t="n">
-        <v>1096.232529686181</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O19" t="n">
-        <v>1327.609635149645</v>
+        <v>1234.150878904367</v>
       </c>
       <c r="P19" t="n">
-        <v>1520.019394147678</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q19" t="n">
-        <v>1532.940161506218</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R19" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S19" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T19" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U19" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V19" t="n">
-        <v>962.5416221712683</v>
+        <v>962.5416221712667</v>
       </c>
       <c r="W19" t="n">
-        <v>768.480799696061</v>
+        <v>768.4807996960595</v>
       </c>
       <c r="X19" t="n">
-        <v>635.847596359797</v>
+        <v>635.8475963597957</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.4113647780202</v>
+        <v>510.4113647780191</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>1731.032454542913</v>
       </c>
       <c r="C20" t="n">
-        <v>1457.426285164255</v>
+        <v>1457.426285164254</v>
       </c>
       <c r="D20" t="n">
-        <v>1194.516934119258</v>
+        <v>1194.516934119257</v>
       </c>
       <c r="E20" t="n">
-        <v>904.0850290827673</v>
+        <v>904.0850290827666</v>
       </c>
       <c r="F20" t="n">
-        <v>588.4554718549131</v>
+        <v>588.4554718549125</v>
       </c>
       <c r="G20" t="n">
-        <v>268.7393692616629</v>
+        <v>268.7393692616627</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218339</v>
@@ -5750,10 +5750,10 @@
         <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5765,16 +5765,16 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
         <v>3310.671500698018</v>
@@ -5786,16 +5786,16 @@
         <v>3041.875971479583</v>
       </c>
       <c r="V20" t="n">
-        <v>2852.580649867028</v>
+        <v>2806.169431697766</v>
       </c>
       <c r="W20" t="n">
-        <v>2595.168342158667</v>
+        <v>2548.757123989405</v>
       </c>
       <c r="X20" t="n">
-        <v>2317.05893145934</v>
+        <v>2317.058931459339</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.275947045282</v>
+        <v>2022.275947045281</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,7 +5844,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.41198488674</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>424.1192475095339</v>
+        <v>424.1192475095329</v>
       </c>
       <c r="C22" t="n">
-        <v>350.5394121433803</v>
+        <v>350.5394121433795</v>
       </c>
       <c r="D22" t="n">
-        <v>295.779120292798</v>
+        <v>295.7791202927972</v>
       </c>
       <c r="E22" t="n">
-        <v>243.2223742721582</v>
+        <v>243.2223742721577</v>
       </c>
       <c r="F22" t="n">
-        <v>191.6887743360012</v>
+        <v>191.6887743360008</v>
       </c>
       <c r="G22" t="n">
-        <v>119.3422852724735</v>
+        <v>119.3422852724732</v>
       </c>
       <c r="H22" t="n">
-        <v>68.48144605208469</v>
+        <v>68.48144605208455</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7936262148972</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K22" t="n">
-        <v>363.563236727842</v>
+        <v>270.1044804825677</v>
       </c>
       <c r="L22" t="n">
-        <v>612.7318368954736</v>
+        <v>519.2730806501995</v>
       </c>
       <c r="M22" t="n">
-        <v>873.6230744399458</v>
+        <v>780.1643181946719</v>
       </c>
       <c r="N22" t="n">
-        <v>1138.390667715068</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O22" t="n">
-        <v>1369.767773178532</v>
+        <v>1234.150878904367</v>
       </c>
       <c r="P22" t="n">
-        <v>1468.71877593129</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q22" t="n">
-        <v>1538.356086608146</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R22" t="n">
-        <v>1538.356086608146</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S22" t="n">
-        <v>1442.026549996726</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T22" t="n">
-        <v>1315.616282128005</v>
+        <v>1315.616282128003</v>
       </c>
       <c r="U22" t="n">
-        <v>1121.869762815402</v>
+        <v>1121.8697628154</v>
       </c>
       <c r="V22" t="n">
-        <v>962.5416221712683</v>
+        <v>962.5416221712667</v>
       </c>
       <c r="W22" t="n">
-        <v>768.480799696061</v>
+        <v>768.4807996960595</v>
       </c>
       <c r="X22" t="n">
-        <v>635.847596359797</v>
+        <v>635.8475963597957</v>
       </c>
       <c r="Y22" t="n">
-        <v>510.4113647780202</v>
+        <v>510.4113647780191</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1731.032454542912</v>
+        <v>1684.621236373654</v>
       </c>
       <c r="C23" t="n">
-        <v>1457.426285164254</v>
+        <v>1411.015066994996</v>
       </c>
       <c r="D23" t="n">
-        <v>1194.516934119257</v>
+        <v>1148.105715949999</v>
       </c>
       <c r="E23" t="n">
-        <v>904.0850290827658</v>
+        <v>857.6738109135081</v>
       </c>
       <c r="F23" t="n">
-        <v>588.4554718549118</v>
+        <v>542.044253685654</v>
       </c>
       <c r="G23" t="n">
-        <v>268.7393692616628</v>
+        <v>268.7393692616627</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3310.671500698018</v>
+        <v>3310.671500698019</v>
       </c>
       <c r="T23" t="n">
         <v>3200.050100643994</v>
       </c>
       <c r="U23" t="n">
-        <v>3041.875971479583</v>
+        <v>3041.875971479584</v>
       </c>
       <c r="V23" t="n">
-        <v>2852.580649867026</v>
+        <v>2806.169431697767</v>
       </c>
       <c r="W23" t="n">
-        <v>2595.168342158665</v>
+        <v>2548.757123989407</v>
       </c>
       <c r="X23" t="n">
-        <v>2317.058931459339</v>
+        <v>2270.64771329008</v>
       </c>
       <c r="Y23" t="n">
-        <v>2022.27594704528</v>
+        <v>1975.864728876022</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6121,58 +6121,58 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>424.1192475095331</v>
+        <v>424.119247509533</v>
       </c>
       <c r="C25" t="n">
-        <v>350.5394121433796</v>
+        <v>350.5394121433795</v>
       </c>
       <c r="D25" t="n">
-        <v>295.7791202927974</v>
+        <v>295.7791202927973</v>
       </c>
       <c r="E25" t="n">
-        <v>243.2223742721578</v>
+        <v>243.2223742721577</v>
       </c>
       <c r="F25" t="n">
-        <v>191.6887743360009</v>
+        <v>191.6887743360008</v>
       </c>
       <c r="G25" t="n">
         <v>119.3422852724733</v>
       </c>
       <c r="H25" t="n">
-        <v>68.48144605208459</v>
+        <v>68.48144605208458</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7936262148974</v>
+        <v>129.6354881860063</v>
       </c>
       <c r="K25" t="n">
-        <v>363.5632367278423</v>
+        <v>321.4050986989512</v>
       </c>
       <c r="L25" t="n">
-        <v>612.7318368954741</v>
+        <v>477.1149426213084</v>
       </c>
       <c r="M25" t="n">
-        <v>873.6230744399463</v>
+        <v>738.0061801657807</v>
       </c>
       <c r="N25" t="n">
-        <v>1101.648454788106</v>
+        <v>1002.773773440903</v>
       </c>
       <c r="O25" t="n">
-        <v>1239.566804006296</v>
+        <v>1234.150878904367</v>
       </c>
       <c r="P25" t="n">
-        <v>1431.976563004329</v>
+        <v>1426.5606379024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1538.356086608144</v>
+        <v>1532.940161506216</v>
       </c>
       <c r="R25" t="n">
-        <v>1538.356086608144</v>
+        <v>1538.356086608143</v>
       </c>
       <c r="S25" t="n">
-        <v>1442.026549996724</v>
+        <v>1442.026549996723</v>
       </c>
       <c r="T25" t="n">
         <v>1315.616282128003</v>
@@ -6181,16 +6181,16 @@
         <v>1121.8697628154</v>
       </c>
       <c r="V25" t="n">
-        <v>962.541622171267</v>
+        <v>962.5416221712667</v>
       </c>
       <c r="W25" t="n">
-        <v>768.4807996960599</v>
+        <v>768.4807996960595</v>
       </c>
       <c r="X25" t="n">
-        <v>635.8475963597959</v>
+        <v>635.8475963597957</v>
       </c>
       <c r="Y25" t="n">
-        <v>510.4113647780193</v>
+        <v>510.4113647780192</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1705.371268238283</v>
+        <v>1428.171828469237</v>
       </c>
       <c r="C26" t="n">
-        <v>1384.315465911551</v>
+        <v>1107.116026142505</v>
       </c>
       <c r="D26" t="n">
-        <v>1384.315465911551</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="E26" t="n">
-        <v>1046.433927926987</v>
+        <v>796.7570421494343</v>
       </c>
       <c r="F26" t="n">
-        <v>683.3547377510597</v>
+        <v>433.6778519735068</v>
       </c>
       <c r="G26" t="n">
-        <v>316.1890022097362</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218326</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
         <v>3263.221867749945</v>
       </c>
       <c r="T26" t="n">
-        <v>3179.938886549664</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U26" t="n">
-        <v>2974.315124437181</v>
+        <v>2899.527072635365</v>
       </c>
       <c r="V26" t="n">
-        <v>2691.158951707291</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W26" t="n">
-        <v>2386.297011050856</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X26" t="n">
-        <v>2386.297011050856</v>
+        <v>1985.94991560164</v>
       </c>
       <c r="Y26" t="n">
-        <v>2044.064393688725</v>
+        <v>1766.864953919678</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O27" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>756.2666781460472</v>
+        <v>756.2666781460467</v>
       </c>
       <c r="C28" t="n">
-        <v>635.2372098318203</v>
+        <v>635.2372098318199</v>
       </c>
       <c r="D28" t="n">
-        <v>533.0272850331646</v>
+        <v>533.0272850331643</v>
       </c>
       <c r="E28" t="n">
-        <v>433.0209060644515</v>
+        <v>433.0209060644513</v>
       </c>
       <c r="F28" t="n">
-        <v>334.0376731802212</v>
+        <v>334.0376731802211</v>
       </c>
       <c r="G28" t="n">
-        <v>214.2415511686202</v>
+        <v>214.2415511686201</v>
       </c>
       <c r="H28" t="n">
         <v>115.931079000158</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
-        <v>158.5881198719867</v>
+        <v>158.5881198719868</v>
       </c>
       <c r="K28" t="n">
-        <v>398.6314812403338</v>
+        <v>409.528673813731</v>
       </c>
       <c r="L28" t="n">
-        <v>762.1446506816977</v>
+        <v>773.0418432550948</v>
       </c>
       <c r="M28" t="n">
-        <v>1153.255067274114</v>
+        <v>1153.255067274113</v>
       </c>
       <c r="N28" t="n">
-        <v>1541.616814972847</v>
+        <v>1541.616814972846</v>
       </c>
       <c r="O28" t="n">
-        <v>1887.899784886128</v>
+        <v>1887.899784886127</v>
       </c>
       <c r="P28" t="n">
-        <v>2167.460656312655</v>
+        <v>2167.460656312654</v>
       </c>
       <c r="Q28" t="n">
-        <v>2292.024323458038</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R28" t="n">
-        <v>2250.100580829246</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S28" t="n">
-        <v>2106.321411269752</v>
+        <v>2106.321411269751</v>
       </c>
       <c r="T28" t="n">
-        <v>1932.461510452958</v>
+        <v>1932.461510452957</v>
       </c>
       <c r="U28" t="n">
-        <v>1691.265358192282</v>
+        <v>1691.265358192281</v>
       </c>
       <c r="V28" t="n">
-        <v>1484.487584600075</v>
+        <v>1484.487584600074</v>
       </c>
       <c r="W28" t="n">
         <v>1242.977129176794</v>
       </c>
       <c r="X28" t="n">
-        <v>1062.894292892457</v>
+        <v>1062.894292892456</v>
       </c>
       <c r="Y28" t="n">
-        <v>890.0084283626069</v>
+        <v>890.0084283626063</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2014.259094492762</v>
+        <v>1677.848714246789</v>
       </c>
       <c r="C29" t="n">
-        <v>1693.203292166031</v>
+        <v>1356.792911920057</v>
       </c>
       <c r="D29" t="n">
-        <v>1382.844308172961</v>
+        <v>1046.433927926987</v>
       </c>
       <c r="E29" t="n">
-        <v>1044.962770188396</v>
+        <v>1046.433927926987</v>
       </c>
       <c r="F29" t="n">
-        <v>681.8835800124691</v>
+        <v>683.3547377510595</v>
       </c>
       <c r="G29" t="n">
-        <v>314.7178444711452</v>
+        <v>316.1890022097361</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6473,40 +6473,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3263.221867749946</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3105.150834747848</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2899.527072635364</v>
       </c>
       <c r="V29" t="n">
-        <v>3325.60582160917</v>
+        <v>2616.370899905474</v>
       </c>
       <c r="W29" t="n">
-        <v>3020.743880952735</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="X29" t="n">
-        <v>2695.184837305335</v>
+        <v>2311.50895924904</v>
       </c>
       <c r="Y29" t="n">
-        <v>2352.952219943204</v>
+        <v>2016.541839697231</v>
       </c>
     </row>
     <row r="30">
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387292</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L30" t="n">
         <v>765.151745215813</v>
@@ -6558,31 +6558,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
         <v>1109.759191501176</v>
@@ -6595,55 +6595,55 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>756.2666781460466</v>
+        <v>756.2666781460467</v>
       </c>
       <c r="C31" t="n">
-        <v>635.2372098318198</v>
+        <v>635.2372098318199</v>
       </c>
       <c r="D31" t="n">
-        <v>533.0272850331642</v>
+        <v>533.0272850331643</v>
       </c>
       <c r="E31" t="n">
-        <v>433.0209060644511</v>
+        <v>433.0209060644513</v>
       </c>
       <c r="F31" t="n">
-        <v>334.0376731802209</v>
+        <v>334.0376731802211</v>
       </c>
       <c r="G31" t="n">
-        <v>214.24155116862</v>
+        <v>214.2415511686201</v>
       </c>
       <c r="H31" t="n">
-        <v>115.9310790001579</v>
+        <v>115.931079000158</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>147.6909272985876</v>
+        <v>158.5881198719869</v>
       </c>
       <c r="K31" t="n">
-        <v>398.6314812403318</v>
+        <v>409.5286738137311</v>
       </c>
       <c r="L31" t="n">
-        <v>762.1446506816958</v>
+        <v>773.041843255095</v>
       </c>
       <c r="M31" t="n">
-        <v>1153.255067274113</v>
+        <v>1164.152259847512</v>
       </c>
       <c r="N31" t="n">
-        <v>1541.616814972845</v>
+        <v>1541.616814972846</v>
       </c>
       <c r="O31" t="n">
-        <v>1887.899784886126</v>
+        <v>1887.899784886127</v>
       </c>
       <c r="P31" t="n">
         <v>2167.460656312654</v>
       </c>
       <c r="Q31" t="n">
-        <v>2292.024323458036</v>
+        <v>2292.024323458037</v>
       </c>
       <c r="R31" t="n">
-        <v>2250.100580829244</v>
+        <v>2250.100580829245</v>
       </c>
       <c r="S31" t="n">
         <v>2106.321411269751</v>
@@ -6658,13 +6658,13 @@
         <v>1484.487584600074</v>
       </c>
       <c r="W31" t="n">
-        <v>1242.977129176793</v>
+        <v>1242.977129176794</v>
       </c>
       <c r="X31" t="n">
         <v>1062.894292892456</v>
       </c>
       <c r="Y31" t="n">
-        <v>890.0084283626062</v>
+        <v>890.0084283626063</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C32" t="n">
         <v>1440.850850103805</v>
@@ -6683,25 +6683,25 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E32" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464977</v>
       </c>
       <c r="F32" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307336</v>
       </c>
       <c r="G32" t="n">
-        <v>265.4242822495727</v>
+        <v>265.424282249573</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6722,13 +6722,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T32" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U32" t="n">
         <v>3051.821232515854</v>
@@ -6737,7 +6737,7 @@
         <v>2819.429779746127</v>
       </c>
       <c r="W32" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X32" t="n">
         <v>2290.53823536262</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6810,19 +6810,19 @@
         <v>2242.828302297191</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6832,58 +6832,58 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>402.2593958170917</v>
+        <v>402.259395817092</v>
       </c>
       <c r="C34" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630285</v>
       </c>
       <c r="D34" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E34" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F34" t="n">
-        <v>183.0892706919196</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G34" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H34" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218339</v>
+        <v>67.83109325226766</v>
       </c>
       <c r="J34" t="n">
-        <v>175.0427429954468</v>
+        <v>176.361719815531</v>
       </c>
       <c r="K34" t="n">
-        <v>370.0614702889412</v>
+        <v>371.3804471090253</v>
       </c>
       <c r="L34" t="n">
-        <v>622.4791872371223</v>
+        <v>623.7981640572066</v>
       </c>
       <c r="M34" t="n">
-        <v>886.6195415621441</v>
+        <v>791.2306453564044</v>
       </c>
       <c r="N34" t="n">
-        <v>1057.928378591992</v>
+        <v>1038.104631555369</v>
       </c>
       <c r="O34" t="n">
-        <v>1292.554600836005</v>
+        <v>1272.730853799383</v>
       </c>
       <c r="P34" t="n">
-        <v>1477.054771460442</v>
+        <v>1371.681856552141</v>
       </c>
       <c r="Q34" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936506</v>
       </c>
       <c r="R34" t="n">
         <v>1489.975538818983</v>
       </c>
       <c r="S34" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219653</v>
       </c>
       <c r="T34" t="n">
         <v>1273.865908363022</v>
@@ -6892,16 +6892,16 @@
         <v>1083.434476062509</v>
       </c>
       <c r="V34" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304659</v>
       </c>
       <c r="W34" t="n">
-        <v>736.6756869673484</v>
+        <v>736.6756869673487</v>
       </c>
       <c r="X34" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431749</v>
       </c>
       <c r="Y34" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734882</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464981</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307341</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218235</v>
+        <v>66.5121164321869</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912077</v>
+        <v>255.3912473912123</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810587</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329467</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001392</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060174</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939511</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710107</v>
+        <v>3313.986587710112</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668177</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064524</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7020,7 +7020,7 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7032,10 +7032,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170917</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630283</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245361</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159865</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919196</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404821</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218338</v>
+        <v>67.83109325226758</v>
       </c>
       <c r="J37" t="n">
-        <v>175.0427429954468</v>
+        <v>79.653846789707</v>
       </c>
       <c r="K37" t="n">
-        <v>358.9027651347951</v>
+        <v>274.6725740832012</v>
       </c>
       <c r="L37" t="n">
-        <v>514.6126090571523</v>
+        <v>527.0902910313822</v>
       </c>
       <c r="M37" t="n">
-        <v>682.0450903563501</v>
+        <v>770.0879214997</v>
       </c>
       <c r="N37" t="n">
-        <v>950.0618004120215</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O37" t="n">
-        <v>1184.688022656035</v>
+        <v>1272.730853799385</v>
       </c>
       <c r="P37" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q37" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R37" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S37" t="n">
-        <v>1396.961089219652</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T37" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U37" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V37" t="n">
-        <v>927.4214224304656</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W37" t="n">
-        <v>736.6756869673484</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X37" t="n">
-        <v>607.3575706431745</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y37" t="n">
-        <v>485.2364260734879</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7157,10 +7157,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
@@ -7169,13 +7169,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218417</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
@@ -7184,7 +7184,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7202,7 +7202,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
         <v>3051.821232515855</v>
@@ -7214,7 +7214,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,13 +7227,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E39" t="n">
         <v>458.9189605332749</v>
@@ -7251,52 +7251,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T39" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V39" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W39" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170925</v>
+        <v>402.2593958170928</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630289</v>
+        <v>331.9946474630292</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245366</v>
+        <v>280.5494426245368</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159869</v>
+        <v>231.307783615987</v>
       </c>
       <c r="F40" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
         <v>66.51211643218342</v>
@@ -7330,52 +7330,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>175.0427429954468</v>
+        <v>155.218995958827</v>
       </c>
       <c r="K40" t="n">
-        <v>370.061470288941</v>
+        <v>253.5298502264974</v>
       </c>
       <c r="L40" t="n">
-        <v>622.4791872371221</v>
+        <v>505.9475671746784</v>
       </c>
       <c r="M40" t="n">
-        <v>789.9116685363199</v>
+        <v>770.0879214997</v>
       </c>
       <c r="N40" t="n">
-        <v>961.2205055661674</v>
+        <v>1038.104631555371</v>
       </c>
       <c r="O40" t="n">
-        <v>1184.688022656037</v>
+        <v>1272.730853799385</v>
       </c>
       <c r="P40" t="n">
-        <v>1380.34689843462</v>
+        <v>1468.389729577967</v>
       </c>
       <c r="Q40" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936508</v>
       </c>
       <c r="R40" t="n">
-        <v>1489.975538818984</v>
+        <v>1489.975538818985</v>
       </c>
       <c r="S40" t="n">
         <v>1396.961089219654</v>
       </c>
       <c r="T40" t="n">
-        <v>1273.865908363023</v>
+        <v>1273.865908363024</v>
       </c>
       <c r="U40" t="n">
-        <v>1083.43447606251</v>
+        <v>1083.434476062511</v>
       </c>
       <c r="V40" t="n">
-        <v>927.4214224304668</v>
+        <v>927.4214224304673</v>
       </c>
       <c r="W40" t="n">
-        <v>736.6756869673495</v>
+        <v>736.67568696735</v>
       </c>
       <c r="X40" t="n">
-        <v>607.3575706431756</v>
+        <v>607.3575706431759</v>
       </c>
       <c r="Y40" t="n">
-        <v>485.2364260734888</v>
+        <v>485.2364260734892</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218417</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7518,22 +7518,22 @@
         <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.259395817092</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C43" t="n">
-        <v>331.9946474630285</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245363</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159866</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F43" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G43" t="n">
         <v>114.0578686404822</v>
@@ -7564,55 +7564,55 @@
         <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962284</v>
+        <v>79.65384678970702</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372932</v>
+        <v>253.5298502264962</v>
       </c>
       <c r="L43" t="n">
-        <v>417.9047360313291</v>
+        <v>505.9475671746773</v>
       </c>
       <c r="M43" t="n">
-        <v>682.0450903563508</v>
+        <v>770.087921499699</v>
       </c>
       <c r="N43" t="n">
-        <v>950.0618004120222</v>
+        <v>941.3967585295464</v>
       </c>
       <c r="O43" t="n">
-        <v>1184.688022656036</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P43" t="n">
-        <v>1380.346898434618</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q43" t="n">
-        <v>1489.975538818983</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R43" t="n">
-        <v>1489.975538818983</v>
+        <v>1489.975538818984</v>
       </c>
       <c r="S43" t="n">
-        <v>1396.961089219653</v>
+        <v>1396.961089219654</v>
       </c>
       <c r="T43" t="n">
-        <v>1273.865908363022</v>
+        <v>1273.865908363023</v>
       </c>
       <c r="U43" t="n">
-        <v>1083.434476062509</v>
+        <v>1083.43447606251</v>
       </c>
       <c r="V43" t="n">
-        <v>927.4214224304659</v>
+        <v>927.4214224304668</v>
       </c>
       <c r="W43" t="n">
-        <v>736.6756869673487</v>
+        <v>736.6756869673495</v>
       </c>
       <c r="X43" t="n">
-        <v>607.3575706431749</v>
+        <v>607.3575706431756</v>
       </c>
       <c r="Y43" t="n">
-        <v>485.2364260734882</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
         <v>1440.850850103805</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070897</v>
+        <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464966</v>
+        <v>894.1397680464971</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307322</v>
+        <v>581.825297830733</v>
       </c>
       <c r="G44" t="n">
         <v>265.4242822495729</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,7 +7676,7 @@
         <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515854</v>
@@ -7691,7 +7691,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="45">
@@ -7783,10 +7783,10 @@
         <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.994647463029</v>
+        <v>331.9946474630289</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245367</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E46" t="n">
         <v>231.3077836159869</v>
@@ -7795,37 +7795,37 @@
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>67.83109325226759</v>
       </c>
       <c r="J46" t="n">
-        <v>175.0427429954467</v>
+        <v>176.3617198155309</v>
       </c>
       <c r="K46" t="n">
-        <v>370.0614702889409</v>
+        <v>274.6725740832013</v>
       </c>
       <c r="L46" t="n">
-        <v>622.479187237122</v>
+        <v>527.0902910313823</v>
       </c>
       <c r="M46" t="n">
-        <v>886.6195415621437</v>
+        <v>791.230645356404</v>
       </c>
       <c r="N46" t="n">
-        <v>1143.477546463671</v>
+        <v>962.5394823862515</v>
       </c>
       <c r="O46" t="n">
-        <v>1281.395895681861</v>
+        <v>1176.02298077356</v>
       </c>
       <c r="P46" t="n">
-        <v>1477.054771460443</v>
+        <v>1371.681856552143</v>
       </c>
       <c r="Q46" t="n">
-        <v>1489.975538818984</v>
+        <v>1481.310496936507</v>
       </c>
       <c r="R46" t="n">
         <v>1489.975538818984</v>
@@ -7849,7 +7849,7 @@
         <v>607.3575706431756</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734889</v>
+        <v>485.2364260734888</v>
       </c>
     </row>
   </sheetData>
@@ -10033,13 +10033,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>95.73650111899894</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M28" t="n">
-        <v>178.5096609094456</v>
+        <v>167.5023956837906</v>
       </c>
       <c r="N28" t="n">
         <v>171.8177168444618</v>
@@ -10267,7 +10267,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>22.62897609706758</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
         <v>106.7437663446525</v>
@@ -10279,7 +10279,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444618</v>
+        <v>160.8104516188063</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.25815758737081</v>
+        <v>15.25815758737082</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.7217493994908</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033587165</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>98.35495372958556</v>
+        <v>102.4006336413288</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>45.94710598756706</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>45.94710598756863</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>45.94710598756931</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>45.9471059875672</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>45.94710598756541</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24263,7 +24263,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>45.9471059875671</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24446,10 +24446,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>307.2553941531397</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.1801169197772</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24494,7 +24494,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>74.04017128379931</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24506,10 +24506,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>322.3034532109258</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>121.9161791233678</v>
       </c>
     </row>
     <row r="27">
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.5027226047185</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.456446161204951</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,25 +24728,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>61.76011432063252</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>156.4903226720768</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>203.5675244913587</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>280.3246110025916</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>322.3034532109257</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>46.79284283221932</v>
       </c>
     </row>
     <row r="30">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>741553.0585206588</v>
+        <v>741553.0585206585</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>741553.0585206586</v>
+        <v>741553.0585206584</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776515.1612162895</v>
+        <v>776515.1612162896</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776515.1612162896</v>
+        <v>776515.1612162899</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>741867.0137278409</v>
+        <v>741867.013727841</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>655421.0709736309</v>
+        <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736306</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="D2" t="n">
-        <v>655423.9098234306</v>
+        <v>655423.9098234302</v>
       </c>
       <c r="E2" t="n">
         <v>611624.8079118741</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.807911874</v>
+        <v>611624.8079118741</v>
       </c>
       <c r="G2" t="n">
-        <v>653907.5041821384</v>
+        <v>653907.5041821382</v>
       </c>
       <c r="H2" t="n">
-        <v>653907.5041821381</v>
+        <v>653907.5041821379</v>
       </c>
       <c r="I2" t="n">
-        <v>653907.504182138</v>
+        <v>653907.5041821385</v>
       </c>
       <c r="J2" t="n">
         <v>612028.2303839311</v>
       </c>
       <c r="K2" t="n">
-        <v>612028.230383931</v>
+        <v>612028.2303839314</v>
       </c>
       <c r="L2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="M2" t="n">
-        <v>656833.4158914263</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="O2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="P2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>9496.994971250369</v>
+        <v>9496.994971248097</v>
       </c>
       <c r="E3" t="n">
-        <v>1152439.021265976</v>
+        <v>1152439.021265978</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37942.11797403458</v>
+        <v>37942.11797403487</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.431426819679992e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>78147.77618248397</v>
+        <v>78147.77618248409</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26421,40 +26421,40 @@
         <v>467615.9599317312</v>
       </c>
       <c r="D4" t="n">
-        <v>463750.8212586371</v>
+        <v>463750.821258638</v>
       </c>
       <c r="E4" t="n">
-        <v>63095.10913369703</v>
+        <v>63095.10913369707</v>
       </c>
       <c r="F4" t="n">
-        <v>63095.10913369707</v>
+        <v>63095.1091336971</v>
       </c>
       <c r="G4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662294</v>
       </c>
       <c r="H4" t="n">
-        <v>91701.70120662285</v>
+        <v>91701.70120662291</v>
       </c>
       <c r="I4" t="n">
-        <v>91701.70120662288</v>
+        <v>91701.70120662292</v>
       </c>
       <c r="J4" t="n">
-        <v>63366.32784492833</v>
+        <v>63366.32784492838</v>
       </c>
       <c r="K4" t="n">
-        <v>63366.32784492841</v>
+        <v>63366.32784492832</v>
       </c>
       <c r="L4" t="n">
+        <v>93774.13782657706</v>
+      </c>
+      <c r="M4" t="n">
         <v>93774.13782657712</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>93774.13782657697</v>
+      </c>
+      <c r="O4" t="n">
         <v>93774.13782657705</v>
-      </c>
-      <c r="N4" t="n">
-        <v>93774.137826577</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93774.13782657706</v>
       </c>
       <c r="P4" t="n">
         <v>93774.13782657703</v>
@@ -26473,13 +26473,13 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33869.34580328353</v>
+        <v>33869.34580328347</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178172</v>
       </c>
       <c r="G5" t="n">
         <v>82242.68821673063</v>
@@ -26488,25 +26488,25 @@
         <v>82242.68821673063</v>
       </c>
       <c r="I5" t="n">
-        <v>82242.68821673063</v>
+        <v>82242.68821673066</v>
       </c>
       <c r="J5" t="n">
-        <v>78293.53545634217</v>
+        <v>78293.53545634219</v>
       </c>
       <c r="K5" t="n">
         <v>78293.53545634219</v>
       </c>
       <c r="L5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624982</v>
+        <v>82518.59730624988</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624984</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624984</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154177.5110418996</v>
+        <v>154173.0974640313</v>
       </c>
       <c r="C6" t="n">
-        <v>154177.5110418994</v>
+        <v>154173.0974640314</v>
       </c>
       <c r="D6" t="n">
-        <v>148306.7477902596</v>
+        <v>148302.3430837982</v>
       </c>
       <c r="E6" t="n">
-        <v>-682164.815809581</v>
+        <v>-682306.0927095189</v>
       </c>
       <c r="F6" t="n">
-        <v>470274.2054563956</v>
+        <v>470132.9285564592</v>
       </c>
       <c r="G6" t="n">
-        <v>442020.9967847503</v>
+        <v>442011.8533106582</v>
       </c>
       <c r="H6" t="n">
-        <v>479963.1147587846</v>
+        <v>479953.9712846928</v>
       </c>
       <c r="I6" t="n">
-        <v>479963.1147587844</v>
+        <v>479953.9712846934</v>
       </c>
       <c r="J6" t="n">
-        <v>470368.3670826607</v>
+        <v>470228.3508779496</v>
       </c>
       <c r="K6" t="n">
-        <v>470368.3670826603</v>
+        <v>470228.35087795</v>
       </c>
       <c r="L6" t="n">
-        <v>402392.9045761155</v>
+        <v>402392.9045761156</v>
       </c>
       <c r="M6" t="n">
-        <v>273352.1124665264</v>
+        <v>273352.112466527</v>
       </c>
       <c r="N6" t="n">
+        <v>480540.6807586002</v>
+      </c>
+      <c r="O6" t="n">
+        <v>480540.6807585997</v>
+      </c>
+      <c r="P6" t="n">
         <v>480540.6807585999</v>
-      </c>
-      <c r="O6" t="n">
-        <v>480540.6807585996</v>
-      </c>
-      <c r="P6" t="n">
-        <v>480540.6807585998</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H2" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I2" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J2" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="K2" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N2" t="n">
+        <v>97.68472022810489</v>
+      </c>
+      <c r="O2" t="n">
         <v>97.68472022810495</v>
       </c>
-      <c r="O2" t="n">
-        <v>97.68472022810502</v>
-      </c>
       <c r="P2" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135443</v>
+        <v>11.08925703135177</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,31 +26796,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.42764746754323</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810511</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>11.08925703135443</v>
+        <v>11.08925703135177</v>
       </c>
       <c r="E3" t="n">
-        <v>1078.687443561944</v>
+        <v>1078.687443561946</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.42764746754323</v>
+        <v>47.42764746754337</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.03928352459999e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,40 +27868,40 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.0182479305516</v>
+        <v>339.0182479305518</v>
       </c>
       <c r="I8" t="n">
-        <v>208.7572219052751</v>
+        <v>208.7572219052755</v>
       </c>
       <c r="J8" t="n">
-        <v>177.2622388826062</v>
+        <v>177.2622388826071</v>
       </c>
       <c r="K8" t="n">
-        <v>214.4191170586402</v>
+        <v>214.4191170586416</v>
       </c>
       <c r="L8" t="n">
-        <v>228.7313680193321</v>
+        <v>228.7313680193338</v>
       </c>
       <c r="M8" t="n">
-        <v>222.5183879862403</v>
+        <v>222.5183879862422</v>
       </c>
       <c r="N8" t="n">
-        <v>221.4585556357983</v>
+        <v>221.4585556358003</v>
       </c>
       <c r="O8" t="n">
-        <v>222.5869951175998</v>
+        <v>222.5869951176016</v>
       </c>
       <c r="P8" t="n">
-        <v>224.8223464178623</v>
+        <v>224.8223464178638</v>
       </c>
       <c r="Q8" t="n">
-        <v>217.491559200099</v>
+        <v>217.4915592001002</v>
       </c>
       <c r="R8" t="n">
-        <v>212.7851939267117</v>
+        <v>212.7851939267124</v>
       </c>
       <c r="S8" t="n">
-        <v>208.0042044823178</v>
+        <v>208.004204482318</v>
       </c>
       <c r="T8" t="n">
         <v>222.9007009303434</v>
@@ -27947,40 +27947,40 @@
         <v>137.31966479903</v>
       </c>
       <c r="H9" t="n">
-        <v>112.0050806140149</v>
+        <v>112.005080614015</v>
       </c>
       <c r="I9" t="n">
-        <v>98.70114728588554</v>
+        <v>98.70114728588574</v>
       </c>
       <c r="J9" t="n">
-        <v>124.5841013297572</v>
+        <v>124.5841013297577</v>
       </c>
       <c r="K9" t="n">
-        <v>133.989805237346</v>
+        <v>133.9898052373469</v>
       </c>
       <c r="L9" t="n">
-        <v>133.3753828993345</v>
+        <v>133.3753828993358</v>
       </c>
       <c r="M9" t="n">
-        <v>136.0903888399301</v>
+        <v>136.0903888399316</v>
       </c>
       <c r="N9" t="n">
-        <v>125.1381096993495</v>
+        <v>125.138109699351</v>
       </c>
       <c r="O9" t="n">
-        <v>136.9211602352003</v>
+        <v>136.9211602352016</v>
       </c>
       <c r="P9" t="n">
-        <v>129.41965201215</v>
+        <v>129.4196520121511</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.9370407214881</v>
+        <v>136.9370407214889</v>
       </c>
       <c r="R9" t="n">
-        <v>144.1985650721163</v>
+        <v>144.1985650721166</v>
       </c>
       <c r="S9" t="n">
-        <v>171.2401239007455</v>
+        <v>171.2401239007456</v>
       </c>
       <c r="T9" t="n">
         <v>200.0685869286724</v>
@@ -28029,37 +28029,37 @@
         <v>162.0493808127402</v>
       </c>
       <c r="I10" t="n">
-        <v>154.8491099721809</v>
+        <v>154.8491099721811</v>
       </c>
       <c r="J10" t="n">
-        <v>125.5816320634479</v>
+        <v>125.5816320634482</v>
       </c>
       <c r="K10" t="n">
-        <v>126.6899679269172</v>
+        <v>126.6899679269177</v>
       </c>
       <c r="L10" t="n">
-        <v>131.911664650242</v>
+        <v>131.9116646502428</v>
       </c>
       <c r="M10" t="n">
-        <v>135.7911600297093</v>
+        <v>135.79116002971</v>
       </c>
       <c r="N10" t="n">
-        <v>124.625454897876</v>
+        <v>124.6254548978767</v>
       </c>
       <c r="O10" t="n">
-        <v>135.6300504465395</v>
+        <v>135.6300504465402</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3094552697191</v>
+        <v>135.3094552697197</v>
       </c>
       <c r="Q10" t="n">
-        <v>149.8305238177113</v>
+        <v>149.8305238177117</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3942526021354</v>
+        <v>176.3942526021356</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6681045004295</v>
+        <v>223.6681045004296</v>
       </c>
       <c r="T10" t="n">
         <v>227.8601476118104</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="12">
@@ -28175,7 +28175,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1.648459146963432e-12</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="14">
@@ -28345,7 +28345,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292606</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28424,7 +28424,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>2.48334686148155e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,7 +28451,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292601</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y17" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="18">
@@ -28655,13 +28655,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.580957587066223e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40278408613582</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>51.81880627917948</v>
+        <v>51.81880627917559</v>
       </c>
       <c r="L19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="M19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="N19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="O19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="P19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="R19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="S19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y19" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y20" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="21">
@@ -28898,7 +28898,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28925,7 +28925,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J22" t="n">
-        <v>94.40278408613582</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="L22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="M22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="N22" t="n">
-        <v>94.40278408613582</v>
+        <v>51.81880627917522</v>
       </c>
       <c r="O22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.28943769526779</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004737</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="S22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y22" t="n">
-        <v>94.40278408613582</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="23">
@@ -29035,31 +29035,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y23" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="24">
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="D25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="E25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="F25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="G25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="H25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="I25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="J25" t="n">
-        <v>94.40278408613592</v>
+        <v>51.81880627917516</v>
       </c>
       <c r="K25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="L25" t="n">
-        <v>94.40278408613592</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="N25" t="n">
-        <v>57.28943769526481</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="P25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Q25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="S25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="T25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="U25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="V25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="W25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="X25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
       <c r="Y25" t="n">
-        <v>94.40278408613592</v>
+        <v>94.40278408613597</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y26" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="27">
@@ -29372,7 +29372,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="J28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="K28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="N28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="O28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="P28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Q28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="R28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="S28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y28" t="n">
-        <v>47.42764746754325</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29551,7 +29551,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.119104808822158e-12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="C31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="D31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="E31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="F31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="G31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="H31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="I31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="J31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="K31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="L31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="M31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="N31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="O31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="P31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="R31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="S31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="T31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="U31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="V31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="W31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="X31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.42764746754332</v>
+        <v>47.4276474675433</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y32" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="33">
@@ -29843,7 +29843,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -29882,7 +29882,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="J34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="K34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="L34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="M34" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>76.32843350415899</v>
       </c>
       <c r="O34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P34" t="n">
-        <v>86.41330088048284</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="S34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292495</v>
+        <v>41.57692977292938</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="36">
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>2.877698079828406e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="J37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>86.41330088048281</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>76.32843350416164</v>
       </c>
       <c r="N37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P37" t="n">
-        <v>97.68472022810506</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810506</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30308,7 +30308,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
-        <v>97.68472022810495</v>
+        <v>77.66073332242847</v>
       </c>
       <c r="K40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O40" t="n">
-        <v>86.41330088048477</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Q40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="42">
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30590,7 +30590,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>76.3284335041605</v>
       </c>
       <c r="L43" t="n">
-        <v>86.41330088048355</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="P43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="J46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="K46" t="n">
-        <v>97.68472022810494</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="M46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N46" t="n">
-        <v>86.41330088048511</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>76.32843350416042</v>
       </c>
       <c r="P46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810494</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04457992776423886</v>
+        <v>0.0445799277642282</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4565541852155114</v>
+        <v>0.4565541852154021</v>
       </c>
       <c r="I8" t="n">
-        <v>1.718667665130821</v>
+        <v>1.718667665130409</v>
       </c>
       <c r="J8" t="n">
-        <v>3.783665644080072</v>
+        <v>3.783665644079167</v>
       </c>
       <c r="K8" t="n">
-        <v>5.670733986340304</v>
+        <v>5.670733986338947</v>
       </c>
       <c r="L8" t="n">
-        <v>7.035046950655131</v>
+        <v>7.035046950653447</v>
       </c>
       <c r="M8" t="n">
-        <v>7.827845241032414</v>
+        <v>7.82784524103054</v>
       </c>
       <c r="N8" t="n">
-        <v>7.954507960792558</v>
+        <v>7.954507960790655</v>
       </c>
       <c r="O8" t="n">
-        <v>7.511216304086907</v>
+        <v>7.51121630408511</v>
       </c>
       <c r="P8" t="n">
-        <v>6.410649337407259</v>
+        <v>6.410649337405725</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.814130674350453</v>
+        <v>4.814130674349301</v>
       </c>
       <c r="R8" t="n">
-        <v>2.800343887420372</v>
+        <v>2.800343887419702</v>
       </c>
       <c r="S8" t="n">
-        <v>1.015865103927594</v>
+        <v>1.015865103927351</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1951486337879557</v>
+        <v>0.195148633787909</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003566394221139109</v>
+        <v>0.003566394221138255</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02385236418064915</v>
+        <v>0.02385236418064344</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2303636224815326</v>
+        <v>0.2303636224814774</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8212327141144553</v>
+        <v>0.8212327141142588</v>
       </c>
       <c r="J9" t="n">
-        <v>2.253525336909488</v>
+        <v>2.253525336908949</v>
       </c>
       <c r="K9" t="n">
-        <v>3.851633737012981</v>
+        <v>3.851633737012059</v>
       </c>
       <c r="L9" t="n">
-        <v>5.178996880539632</v>
+        <v>5.178996880538392</v>
       </c>
       <c r="M9" t="n">
-        <v>6.043645082088162</v>
+        <v>6.043645082086715</v>
       </c>
       <c r="N9" t="n">
-        <v>6.203602383983831</v>
+        <v>6.203602383982347</v>
       </c>
       <c r="O9" t="n">
-        <v>5.675084209244185</v>
+        <v>5.675084209242827</v>
       </c>
       <c r="P9" t="n">
-        <v>4.554755402180274</v>
+        <v>4.554755402179184</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.044733364533389</v>
+        <v>3.044733364532661</v>
       </c>
       <c r="R9" t="n">
-        <v>1.480938891847673</v>
+        <v>1.480938891847319</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4430472030923204</v>
+        <v>0.4430472030922144</v>
       </c>
       <c r="T9" t="n">
-        <v>0.09614176614919542</v>
+        <v>0.09614176614917241</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001569234485569023</v>
+        <v>0.001569234485568648</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0199970208762129</v>
+        <v>0.01999702087620811</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1777916946994203</v>
+        <v>0.1777916946993777</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6013649550773844</v>
+        <v>0.6013649550772405</v>
       </c>
       <c r="J10" t="n">
-        <v>1.413789375948252</v>
+        <v>1.413789375947913</v>
       </c>
       <c r="K10" t="n">
-        <v>2.323290243618189</v>
+        <v>2.323290243617633</v>
       </c>
       <c r="L10" t="n">
-        <v>2.973011630996234</v>
+        <v>2.973011630995523</v>
       </c>
       <c r="M10" t="n">
-        <v>3.134623917895809</v>
+        <v>3.134623917895059</v>
       </c>
       <c r="N10" t="n">
-        <v>3.0600895673572</v>
+        <v>3.060089567356467</v>
       </c>
       <c r="O10" t="n">
-        <v>2.826488005303257</v>
+        <v>2.82648800530258</v>
       </c>
       <c r="P10" t="n">
-        <v>2.418548779428512</v>
+        <v>2.418548779427933</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.674477811734518</v>
+        <v>1.674477811734118</v>
       </c>
       <c r="R10" t="n">
-        <v>0.8991387750340816</v>
+        <v>0.8991387750338664</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3484935365427283</v>
+        <v>0.3484935365426449</v>
       </c>
       <c r="T10" t="n">
-        <v>0.08544181647109145</v>
+        <v>0.08544181647107101</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001090746593247978</v>
+        <v>0.001090746593247716</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003807</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.356529362319</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574989</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095019</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099054</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.994981974641</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781687</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806945</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,10 +32069,10 @@
         <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.6385688179853</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752252</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
@@ -32081,34 +32081,34 @@
         <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138793</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233472</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.647816683792</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970247</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238314</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898492</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742015</v>
       </c>
       <c r="J16" t="n">
         <v>138.9375967297389</v>
@@ -32160,31 +32160,31 @@
         <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.3612387071221</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553034</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.39664015211229</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,37 +32540,37 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32579,7 +32579,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32628,16 +32628,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
         <v>300.7247737883114</v>
@@ -32646,19 +32646,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780294</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -34372,7 +34372,7 @@
         <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623199</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
         <v>769.2673490574992</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687123</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554002</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923317</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302262</v>
       </c>
       <c r="N14" t="n">
         <v>552.301835412911</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882187</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193714</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037192</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222461</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597696</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340051</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013289</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004588</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887906</v>
@@ -35817,13 +35817,13 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P16" t="n">
         <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,31 +36039,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>106.3449593764787</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>151.1226994788464</v>
+        <v>151.1226994788425</v>
       </c>
       <c r="L19" t="n">
-        <v>251.6854547147794</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M19" t="n">
-        <v>263.5265025701739</v>
+        <v>263.526502570174</v>
       </c>
       <c r="N19" t="n">
-        <v>267.442013409214</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O19" t="n">
-        <v>233.714247942893</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P19" t="n">
-        <v>194.353291917205</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05128016014211</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R19" t="n">
-        <v>5.470631416088452</v>
+        <v>5.470631416088594</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,31 +36276,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.3449593764787</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K22" t="n">
-        <v>193.7066772858028</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L22" t="n">
-        <v>251.6854547147794</v>
+        <v>251.6854547147796</v>
       </c>
       <c r="M22" t="n">
-        <v>263.5265025701739</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N22" t="n">
-        <v>267.442013409214</v>
+        <v>224.8580356022535</v>
       </c>
       <c r="O22" t="n">
-        <v>233.714247942893</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106922</v>
+        <v>194.3532919172052</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.34071785540991</v>
+        <v>107.4540642462781</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.470631416088622</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687133</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>106.3449593764788</v>
+        <v>63.76098156951802</v>
       </c>
       <c r="K25" t="n">
-        <v>193.7066772858029</v>
+        <v>193.706677285803</v>
       </c>
       <c r="L25" t="n">
-        <v>251.6854547147796</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M25" t="n">
-        <v>263.526502570174</v>
+        <v>263.5265025701741</v>
       </c>
       <c r="N25" t="n">
-        <v>230.3286670183431</v>
+        <v>267.4420134092142</v>
       </c>
       <c r="O25" t="n">
-        <v>139.3114638567573</v>
+        <v>233.7142479428932</v>
       </c>
       <c r="P25" t="n">
         <v>194.3532919172052</v>
@@ -36537,7 +36537,7 @@
         <v>107.4540642462781</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.470631416088622</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597746</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.00606408060943</v>
+        <v>93.00606408060949</v>
       </c>
       <c r="K28" t="n">
-        <v>242.4680417862092</v>
+        <v>253.4753070118628</v>
       </c>
       <c r="L28" t="n">
         <v>367.1850196377413</v>
       </c>
       <c r="M28" t="n">
-        <v>395.061026861027</v>
+        <v>384.053761635372</v>
       </c>
       <c r="N28" t="n">
         <v>392.2845936350833</v>
@@ -36768,7 +36768,7 @@
         <v>349.780777690183</v>
       </c>
       <c r="P28" t="n">
-        <v>282.3847186126536</v>
+        <v>282.3847186126537</v>
       </c>
       <c r="Q28" t="n">
         <v>125.8218860054369</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.99879885495376</v>
+        <v>93.00606408060952</v>
       </c>
       <c r="K31" t="n">
-        <v>253.4753070118628</v>
+        <v>253.4753070118629</v>
       </c>
       <c r="L31" t="n">
         <v>367.1850196377414</v>
@@ -36999,7 +36999,7 @@
         <v>395.0610268610271</v>
       </c>
       <c r="N31" t="n">
-        <v>392.2845936350834</v>
+        <v>381.2773284094279</v>
       </c>
       <c r="O31" t="n">
         <v>349.7807776901831</v>
@@ -37221,34 +37221,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.332299818266911</v>
       </c>
       <c r="J34" t="n">
         <v>109.6268955184479</v>
       </c>
       <c r="K34" t="n">
-        <v>196.9886134277721</v>
+        <v>196.988613427772</v>
       </c>
       <c r="L34" t="n">
         <v>254.9673908567487</v>
       </c>
       <c r="M34" t="n">
-        <v>266.8084387121432</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N34" t="n">
-        <v>173.0392293230782</v>
+        <v>249.3676628272372</v>
       </c>
       <c r="O34" t="n">
         <v>236.9961840848623</v>
       </c>
       <c r="P34" t="n">
-        <v>186.3638087115521</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882472</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>8.752567558057677</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.033516706560146e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>190.7870009687125</v>
@@ -37458,34 +37458,34 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.332299818266783</v>
       </c>
       <c r="J37" t="n">
-        <v>109.6268955184479</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K37" t="n">
-        <v>185.7171940801498</v>
+        <v>196.9886134277719</v>
       </c>
       <c r="L37" t="n">
-        <v>157.2826706286436</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M37" t="n">
-        <v>169.1237184840381</v>
+        <v>245.4521519881998</v>
       </c>
       <c r="N37" t="n">
-        <v>270.7239495511833</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O37" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P37" t="n">
-        <v>197.6352280591743</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q37" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37698,31 +37698,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>109.6268955184478</v>
+        <v>89.60290861277133</v>
       </c>
       <c r="K40" t="n">
-        <v>196.988613427772</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L40" t="n">
-        <v>254.9673908567486</v>
+        <v>254.9673908567485</v>
       </c>
       <c r="M40" t="n">
-        <v>169.1237184840381</v>
+        <v>266.808438712143</v>
       </c>
       <c r="N40" t="n">
-        <v>173.0392293230782</v>
+        <v>270.7239495511831</v>
       </c>
       <c r="O40" t="n">
-        <v>225.724764737242</v>
+        <v>236.9961840848621</v>
       </c>
       <c r="P40" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q40" t="n">
-        <v>110.7360003882471</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>8.752567558057549</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37932,34 +37932,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J43" t="n">
         <v>11.94217529034286</v>
       </c>
       <c r="K43" t="n">
-        <v>99.30389319966699</v>
+        <v>175.6323267038275</v>
       </c>
       <c r="L43" t="n">
-        <v>243.6959715091272</v>
+        <v>254.9673908567486</v>
       </c>
       <c r="M43" t="n">
         <v>266.8084387121431</v>
       </c>
       <c r="N43" t="n">
-        <v>270.7239495511833</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O43" t="n">
-        <v>236.9961840848623</v>
+        <v>236.9961840848622</v>
       </c>
       <c r="P43" t="n">
-        <v>197.6352280591743</v>
+        <v>197.6352280591742</v>
       </c>
       <c r="Q43" t="n">
-        <v>110.7360003882472</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923326</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38169,13 +38169,13 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.33229981826684</v>
       </c>
       <c r="J46" t="n">
         <v>109.6268955184478</v>
       </c>
       <c r="K46" t="n">
-        <v>196.9886134277719</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L46" t="n">
         <v>254.9673908567486</v>
@@ -38184,19 +38184,19 @@
         <v>266.8084387121431</v>
       </c>
       <c r="N46" t="n">
-        <v>259.4525302035634</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O46" t="n">
-        <v>139.3114638567573</v>
+        <v>215.6398973609177</v>
       </c>
       <c r="P46" t="n">
         <v>197.6352280591742</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.05128016014217</v>
+        <v>110.7360003882471</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.752567558057606</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
